--- a/洋河/财务指标.xlsx
+++ b/洋河/财务指标.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="总体指标" sheetId="1" r:id="rId1"/>
@@ -74746,12 +74746,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -74759,15 +74759,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -74780,6 +74771,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -75077,7 +75077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -75453,10 +75453,10 @@
   <dimension ref="A1:BB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AP2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -76954,11 +76954,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -78808,37 +78808,37 @@
         <v>884</v>
       </c>
       <c r="N1" s="1"/>
-      <c r="O1" s="56" t="s">
+      <c r="O1" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
       <c r="S1" s="19" t="s">
         <v>830</v>
       </c>
-      <c r="T1" s="56" t="s">
+      <c r="T1" s="58" t="s">
         <v>831</v>
       </c>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56" t="s">
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58" t="s">
         <v>839</v>
       </c>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
       <c r="AB1" s="19" t="s">
         <v>844</v>
       </c>
       <c r="AC1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="57" t="s">
+      <c r="AD1" s="56" t="s">
         <v>847</v>
       </c>
-      <c r="AE1" s="57"/>
+      <c r="AE1" s="56"/>
       <c r="AF1" s="12" t="s">
         <v>849</v>
       </c>
@@ -78848,18 +78848,18 @@
       <c r="AH1" s="12" t="s">
         <v>851</v>
       </c>
-      <c r="AI1" s="57" t="s">
+      <c r="AI1" s="56" t="s">
         <v>854</v>
       </c>
-      <c r="AJ1" s="57"/>
+      <c r="AJ1" s="56"/>
       <c r="AK1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AL1" s="57" t="s">
+      <c r="AL1" s="56" t="s">
         <v>856</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
+      <c r="AM1" s="56"/>
+      <c r="AN1" s="56"/>
       <c r="AO1" s="12" t="s">
         <v>343</v>
       </c>
@@ -78869,10 +78869,10 @@
       <c r="AQ1" s="12" t="s">
         <v>863</v>
       </c>
-      <c r="AR1" s="57" t="s">
+      <c r="AR1" s="56" t="s">
         <v>866</v>
       </c>
-      <c r="AS1" s="57"/>
+      <c r="AS1" s="56"/>
       <c r="AT1" s="23" t="s">
         <v>869</v>
       </c>
@@ -78902,56 +78902,56 @@
         <v>884</v>
       </c>
       <c r="BD1" s="24"/>
-      <c r="BE1" s="56" t="s">
+      <c r="BE1" s="58" t="s">
         <v>905</v>
       </c>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
       <c r="BH1" s="24" t="s">
         <v>887</v>
       </c>
       <c r="BI1" s="24" t="s">
         <v>917</v>
       </c>
-      <c r="BJ1" s="56" t="s">
+      <c r="BJ1" s="58" t="s">
         <v>912</v>
       </c>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56" t="s">
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58" t="s">
         <v>913</v>
       </c>
-      <c r="BQ1" s="56"/>
+      <c r="BQ1" s="58"/>
       <c r="BR1" s="24" t="s">
         <v>897</v>
       </c>
-      <c r="BS1" s="56" t="s">
+      <c r="BS1" s="58" t="s">
         <v>899</v>
       </c>
-      <c r="BT1" s="56"/>
-      <c r="BU1" s="56"/>
-      <c r="BW1" s="56" t="s">
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BW1" s="58" t="s">
         <v>925</v>
       </c>
-      <c r="BX1" s="56"/>
-      <c r="BY1" s="56"/>
-      <c r="BZ1" s="56"/>
-      <c r="CA1" s="56"/>
-      <c r="CB1" s="56" t="s">
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
+      <c r="CA1" s="58"/>
+      <c r="CB1" s="58" t="s">
         <v>932</v>
       </c>
-      <c r="CC1" s="56"/>
-      <c r="CD1" s="56"/>
-      <c r="CE1" s="56"/>
-      <c r="CF1" s="56" t="s">
+      <c r="CC1" s="58"/>
+      <c r="CD1" s="58"/>
+      <c r="CE1" s="58"/>
+      <c r="CF1" s="58" t="s">
         <v>942</v>
       </c>
-      <c r="CG1" s="56"/>
-      <c r="CH1" s="56"/>
-      <c r="CI1" s="56"/>
+      <c r="CG1" s="58"/>
+      <c r="CH1" s="58"/>
+      <c r="CI1" s="58"/>
       <c r="CJ1" s="24" t="s">
         <v>953</v>
       </c>
@@ -78979,7 +78979,7 @@
       </c>
     </row>
     <row r="2" spans="1:96" ht="108.75">
-      <c r="A2" s="58">
+      <c r="A2" s="57">
         <v>2012</v>
       </c>
       <c r="B2" s="16"/>
@@ -79177,7 +79177,7 @@
       <c r="CR2" s="22"/>
     </row>
     <row r="3" spans="1:96" ht="84.75">
-      <c r="A3" s="58"/>
+      <c r="A3" s="57"/>
       <c r="B3" t="s">
         <v>1067</v>
       </c>
@@ -81303,6 +81303,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="BW1:CA1"/>
+    <mergeCell ref="CB1:CE1"/>
+    <mergeCell ref="CF1:CI1"/>
+    <mergeCell ref="BS1:BU1"/>
+    <mergeCell ref="BE1:BG1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="AL1:AN1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="AR1:AS1"/>
@@ -81311,13 +81318,6 @@
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="BW1:CA1"/>
-    <mergeCell ref="CB1:CE1"/>
-    <mergeCell ref="CF1:CI1"/>
-    <mergeCell ref="BS1:BU1"/>
-    <mergeCell ref="BE1:BG1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BQ1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -81564,10 +81564,10 @@
       <c r="O2" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="P2" s="57" t="s">
+      <c r="P2" s="56" t="s">
         <v>792</v>
       </c>
-      <c r="Q2" s="57"/>
+      <c r="Q2" s="56"/>
       <c r="R2" s="1" t="s">
         <v>788</v>
       </c>
@@ -82109,7 +82109,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="41.25">
-      <c r="A5" s="58">
+      <c r="A5" s="57">
         <v>2012</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -82123,7 +82123,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="126.75">
-      <c r="A6" s="58"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="13" t="s">
         <v>801</v>
       </c>
@@ -82141,7 +82141,7 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="58">
+      <c r="A7" s="57">
         <v>2013</v>
       </c>
       <c r="B7" t="s">
@@ -82152,7 +82152,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="99.75">
-      <c r="A8" s="58"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="4" t="s">
         <v>1044</v>
       </c>
@@ -82170,7 +82170,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A9" s="58">
+      <c r="A9" s="57">
         <v>2014</v>
       </c>
       <c r="B9" t="s">
@@ -82179,26 +82179,26 @@
       <c r="C9" t="s">
         <v>1168</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="67" t="s">
         <v>1172</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="132.75" customHeight="1">
-      <c r="A10" s="58"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="5" t="s">
         <v>1260</v>
       </c>
       <c r="C10" t="s">
         <v>1171</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="63"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="58">
+      <c r="A11" s="57">
         <v>2015</v>
       </c>
       <c r="B11" t="s">
@@ -82207,146 +82207,130 @@
       <c r="C11" t="s">
         <v>1262</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="65" t="s">
         <v>1265</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="108.75" customHeight="1">
-      <c r="A12" s="58"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="5" t="s">
         <v>1261</v>
       </c>
       <c r="C12" t="s">
         <v>1263</v>
       </c>
-      <c r="D12" s="58"/>
-      <c r="E12" s="62"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="66"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="58">
+      <c r="A13" s="57">
         <v>2016</v>
       </c>
       <c r="B13" t="s">
         <v>1344</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="57" t="s">
         <v>1345</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="58" t="s">
         <v>1343</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="61" t="s">
         <v>1347</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="170.25" customHeight="1">
-      <c r="A14" s="58"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="5" t="s">
         <v>1346</v>
       </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="65"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="62"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A15" s="58">
+      <c r="A15" s="57">
         <v>2017</v>
       </c>
       <c r="B15" t="s">
         <v>1414</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="57" t="s">
         <v>1483</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="61" t="s">
         <v>1416</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="171" customHeight="1">
-      <c r="A16" s="58"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="5" t="s">
         <v>1415</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="65"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="62"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="58">
+      <c r="A17" s="57">
         <v>2018</v>
       </c>
       <c r="B17" t="s">
         <v>1481</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="58" t="s">
         <v>1484</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="63" t="s">
         <v>1485</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="180" customHeight="1">
-      <c r="A18" s="58"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="5" t="s">
         <v>1482</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="67"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="58">
+      <c r="A19" s="57">
         <v>2019</v>
       </c>
       <c r="B19" t="s">
         <v>1675</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="58" t="s">
         <v>1677</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="58" t="s">
         <v>1155</v>
       </c>
-      <c r="E19" s="64" t="s">
+      <c r="E19" s="61" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="138.75" customHeight="1">
-      <c r="A20" s="58"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="5" t="s">
         <v>1676</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="65"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="E13:E14"/>
     <mergeCell ref="D11:D12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="E11:E12"/>
@@ -82356,6 +82340,22 @@
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
